--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -142,8 +142,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实时读取(多线程中的界面更新，需要将涉及界面的代码封装为方法，通过Invoke或者BeginInvoke 调用，减轻UI线程工作量)
-1.多线程：目前在每次按下实时读取按钮后创建一个新线程，用于实时读取</t>
+    <t xml:space="preserve">实时读取(多线程中的界面更新，需要将涉及界面的代码封装为方法，通过Invoke或者BeginInvoke 调用，减轻UI线程工作量)
+多线程1:目前在每次按下实时读取按钮constantRW_Click后创建一个新线程(后台线程)，该线程用于实时读取。按下停止按钮stop_ConstantRead_Click后将多线程读取标志位写false，并且关闭线程。
+2:添加一个界面更新的代码方法threadReadFun，该方法在后台线程方法ThreadReadRobot中调用，由于是跨线程调用，故使用invoke方式
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
